--- a/Data/Dialogs/dlgMain.xlsx
+++ b/Data/Dialogs/dlgMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\PythonProject1\Data\Dialogs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Dialogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AAEC7-8C6B-410B-B637-E35321FC3FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF464AD-B3C8-4A14-96B5-AF49E69B0D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3732" yWindow="216" windowWidth="34896" windowHeight="16308" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2688" yWindow="1980" windowWidth="37188" windowHeight="15300" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Record/Selector</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Action</t>
   </si>
@@ -73,13 +67,31 @@
   </si>
   <si>
     <t>pagQuicklinks</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record / Control </t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>&lt;NOP&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +99,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,8 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -133,13 +168,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>251249</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>148967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -473,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,63 +526,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="M4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
